--- a/Instances/05_01_OneResourcePerLevelC=1_NonStationary.xlsx
+++ b/Instances/05_01_OneResourcePerLevelC=1_NonStationary.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>36418</v>
+        <v>22303</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>18.877152</v>
+        <v>18.042864</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3081,7 +3081,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>13.94312391111111</v>
+        <v>13.32689848888888</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>2.782554311111111</v>
+        <v>3.353564918518518</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>29.73056888888889</v>
+        <v>25.70727111111111</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>2.702652444444444</v>
+        <v>3.565805155555555</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>23.68549925925926</v>
+        <v>23.96084148148148</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>36418</v>
+        <v>22303</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>1.598065777777778</v>
+        <v>1.527438222222222</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>36418</v>
+        <v>22303</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>2.477001955555556</v>
+        <v>2.367529244444444</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>36418</v>
+        <v>22303</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>2.397098666666666</v>
+        <v>2.291157333333333</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>36418</v>
+        <v>22303</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>1.697944888888889</v>
+        <v>1.622903111111111</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>36418</v>
+        <v>22303</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>1.657993244444445</v>
+        <v>1.584717155555555</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>36418</v>
+        <v>22303</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>2.377122844444445</v>
+        <v>2.272064355555556</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2606</v>
+        <v>633</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1021393777777778</v>
+        <v>0.1230994962962963</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>19969</v>
+        <v>15737</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>16.39921351111111</v>
+        <v>14.65309013333333</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>17363</v>
+        <v>15103</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>1.146367881481481</v>
+        <v>0.9912353185185185</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36418</v>
+        <v>22303</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>1.657993244444445</v>
+        <v>1.584717155555555</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>758</v>
+        <v>1283</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1103300740740741</v>
+        <v>0.1455664592592593</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>16448</v>
+        <v>6566</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>14.86201528888889</v>
+        <v>15.51521813333333</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>15690</v>
+        <v>5282</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6513512296296295</v>
+        <v>0.6589231407407407</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>800</v>
+        <v>398</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9311466666666666</v>
+        <v>0.9207466666666666</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1176</v>
+        <v>2261</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>1.986919229629629</v>
+        <v>2.597929244444444</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>17243</v>
+        <v>8270</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>18.12081268148148</v>
+        <v>12.95247561481481</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>5666</v>
+        <v>5911</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>13.674432</v>
+        <v>14.61600533333333</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>980</v>
+        <v>1673</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>1.912300444444444</v>
+        <v>1.957050666666667</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>781</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9101070222222223</v>
+        <v>1.763452207407407</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3989</v>
+        <v>5621</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>11.78227721481482</v>
+        <v>10.78542554074074</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>10242</v>
+        <v>16342</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>13.23196302222222</v>
+        <v>14.53276776296296</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3985,28 +3985,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>795</v>
+        <v>396</v>
       </c>
       <c r="V2" t="n">
-        <v>705</v>
+        <v>805</v>
       </c>
       <c r="W2" t="n">
-        <v>9453</v>
+        <v>5550</v>
       </c>
       <c r="X2" t="n">
-        <v>1382</v>
+        <v>3018</v>
       </c>
       <c r="Y2" t="n">
-        <v>599</v>
+        <v>1202</v>
       </c>
       <c r="Z2" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>3357</v>
+        <v>523</v>
       </c>
       <c r="AB2" t="n">
-        <v>4502</v>
+        <v>9282</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4074,25 +4074,25 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>461</v>
+        <v>1434</v>
       </c>
       <c r="W3" t="n">
-        <v>7639</v>
+        <v>2653</v>
       </c>
       <c r="X3" t="n">
-        <v>4225</v>
+        <v>2840</v>
       </c>
       <c r="Y3" t="n">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="Z3" t="n">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>604</v>
+        <v>5035</v>
       </c>
       <c r="AB3" t="n">
-        <v>5644</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4157,28 +4157,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="V4" t="n">
-        <v>1534</v>
+        <v>35</v>
       </c>
       <c r="W4" t="n">
-        <v>5695</v>
+        <v>1907</v>
       </c>
       <c r="X4" t="n">
-        <v>4673</v>
+        <v>4531</v>
       </c>
       <c r="Y4" t="n">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="AA4" t="n">
-        <v>4590</v>
+        <v>2837</v>
       </c>
       <c r="AB4" t="n">
-        <v>8478</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4243,28 +4243,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="V5" t="n">
-        <v>711</v>
+        <v>179</v>
       </c>
       <c r="W5" t="n">
-        <v>1065</v>
+        <v>4291</v>
       </c>
       <c r="X5" t="n">
-        <v>5607</v>
+        <v>4082</v>
       </c>
       <c r="Y5" t="n">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2347</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4329,28 +4329,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1104</v>
+        <v>524</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="W6" t="n">
-        <v>4951</v>
+        <v>3003</v>
       </c>
       <c r="X6" t="n">
-        <v>1126</v>
+        <v>7375</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="Z6" t="n">
-        <v>495</v>
+        <v>815</v>
       </c>
       <c r="AA6" t="n">
-        <v>2997</v>
+        <v>411</v>
       </c>
       <c r="AB6" t="n">
-        <v>1191</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4415,28 +4415,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="V7" t="n">
-        <v>748</v>
+        <v>1113</v>
       </c>
       <c r="W7" t="n">
-        <v>2267</v>
+        <v>1378</v>
       </c>
       <c r="X7" t="n">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1149</v>
+        <v>1181</v>
       </c>
       <c r="Z7" t="n">
-        <v>674</v>
+        <v>494</v>
       </c>
       <c r="AA7" t="n">
-        <v>8061</v>
+        <v>1104</v>
       </c>
       <c r="AB7" t="n">
-        <v>4088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4501,28 +4501,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>378</v>
+        <v>819</v>
       </c>
       <c r="V8" t="n">
-        <v>545</v>
+        <v>104</v>
       </c>
       <c r="W8" t="n">
-        <v>2756</v>
+        <v>7203</v>
       </c>
       <c r="X8" t="n">
-        <v>4347</v>
+        <v>2380</v>
       </c>
       <c r="Y8" t="n">
-        <v>1335</v>
+        <v>145</v>
       </c>
       <c r="Z8" t="n">
-        <v>388</v>
+        <v>662</v>
       </c>
       <c r="AA8" t="n">
-        <v>5145</v>
+        <v>3826</v>
       </c>
       <c r="AB8" t="n">
-        <v>2688</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4587,28 +4587,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="V9" t="n">
-        <v>552</v>
+        <v>1116</v>
       </c>
       <c r="W9" t="n">
-        <v>7358</v>
+        <v>1890</v>
       </c>
       <c r="X9" t="n">
-        <v>1518</v>
+        <v>8715</v>
       </c>
       <c r="Y9" t="n">
-        <v>757</v>
+        <v>681</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="AA9" t="n">
-        <v>2874</v>
+        <v>7175</v>
       </c>
       <c r="AB9" t="n">
-        <v>2405</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4676,25 +4676,25 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>222</v>
+        <v>1070</v>
       </c>
       <c r="W10" t="n">
-        <v>4204</v>
+        <v>3573</v>
       </c>
       <c r="X10" t="n">
-        <v>6041</v>
+        <v>6788</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="Z10" t="n">
-        <v>43</v>
+        <v>487</v>
       </c>
       <c r="AA10" t="n">
-        <v>1968</v>
+        <v>5356</v>
       </c>
       <c r="AB10" t="n">
-        <v>522</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4759,28 +4759,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="V11" t="n">
-        <v>203</v>
+        <v>665</v>
       </c>
       <c r="W11" t="n">
-        <v>6741</v>
+        <v>5813</v>
       </c>
       <c r="X11" t="n">
-        <v>8639</v>
+        <v>1174</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="AB11" t="n">
-        <v>991</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4947,28 +4947,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>19.875</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>17.625</v>
+        <v>20.125</v>
       </c>
       <c r="W2" t="n">
-        <v>236.325</v>
+        <v>138.75</v>
       </c>
       <c r="X2" t="n">
-        <v>34.54999999999999</v>
+        <v>75.44999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.975</v>
+        <v>30.04999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.92499999999998</v>
+        <v>13.075</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.55</v>
+        <v>232.05</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5036,25 +5036,25 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>21.89749999999999</v>
+        <v>68.11499999999998</v>
       </c>
       <c r="W3" t="n">
-        <v>362.8524999999999</v>
+        <v>126.0175</v>
       </c>
       <c r="X3" t="n">
-        <v>200.6874999999999</v>
+        <v>134.8999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.71749999999999</v>
+        <v>21.755</v>
       </c>
       <c r="Z3" t="n">
-        <v>33.15499999999999</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>28.68999999999999</v>
+        <v>239.1624999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.0899999999999</v>
+        <v>328.6049999999999</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -5119,28 +5119,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.522999999999999</v>
+        <v>7.723499999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>103.9285</v>
+        <v>2.371249999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>385.8362499999999</v>
+        <v>129.1992499999999</v>
       </c>
       <c r="X4" t="n">
-        <v>316.5957499999999</v>
+        <v>306.9752499999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.41974999999999</v>
+        <v>27.91299999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>23.78024999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.9724999999999</v>
+        <v>192.2067499999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.3844999999998</v>
+        <v>7.655749999999998</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5205,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>22.439475</v>
+        <v>25.190675</v>
       </c>
       <c r="V5" t="n">
-        <v>61.128225</v>
+        <v>15.389525</v>
       </c>
       <c r="W5" t="n">
-        <v>91.56337499999999</v>
+        <v>368.918725</v>
       </c>
       <c r="X5" t="n">
-        <v>482.061825</v>
+        <v>350.94995</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.362625</v>
+        <v>27.512</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>15.217575</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>201.783325</v>
+        <v>191.982175</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -5291,28 +5291,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>113.02476</v>
+        <v>53.64580999999999</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>92.85639249999998</v>
       </c>
       <c r="W6" t="n">
-        <v>506.8710024999999</v>
+        <v>307.4396325</v>
       </c>
       <c r="X6" t="n">
-        <v>115.277065</v>
+        <v>755.0340624999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>27.3347925</v>
       </c>
       <c r="Z6" t="n">
-        <v>50.67686249999999</v>
+        <v>83.43766249999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>306.8253675</v>
+        <v>42.07715249999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.9316025</v>
+        <v>187.4532025</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -5377,28 +5377,28 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>11.245416</v>
+        <v>9.95687875</v>
       </c>
       <c r="V7" t="n">
-        <v>87.62053299999999</v>
+        <v>130.37654175</v>
       </c>
       <c r="W7" t="n">
-        <v>265.55581325</v>
+        <v>161.4185755</v>
       </c>
       <c r="X7" t="n">
-        <v>83.16922249999999</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>134.59357275</v>
+        <v>138.34204475</v>
       </c>
       <c r="Z7" t="n">
-        <v>78.9521915</v>
+        <v>57.86703649999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>944.2635247499999</v>
+        <v>129.322284</v>
       </c>
       <c r="AB7" t="n">
-        <v>478.8672979999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5463,28 +5463,28 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.30094294999999</v>
+        <v>106.818709725</v>
       </c>
       <c r="V8" t="n">
-        <v>71.08204737499999</v>
+        <v>13.5642806</v>
       </c>
       <c r="W8" t="n">
-        <v>359.4534358999999</v>
+        <v>939.4568573249998</v>
       </c>
       <c r="X8" t="n">
-        <v>566.9608439249998</v>
+        <v>310.4133444999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.1184096249999</v>
+        <v>18.91173737499999</v>
       </c>
       <c r="Z8" t="n">
-        <v>50.60520069999998</v>
+        <v>86.34186304999997</v>
       </c>
       <c r="AA8" t="n">
-        <v>671.0406123749998</v>
+        <v>499.0090151499999</v>
       </c>
       <c r="AB8" t="n">
-        <v>350.5844831999999</v>
+        <v>393.2337116249999</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5549,28 +5549,28 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>35.59579937499999</v>
       </c>
       <c r="V9" t="n">
-        <v>78.59552501999998</v>
+        <v>158.89964841</v>
       </c>
       <c r="W9" t="n">
-        <v>1047.655567205</v>
+        <v>269.1042432749999</v>
       </c>
       <c r="X9" t="n">
-        <v>216.137693805</v>
+        <v>1240.8695662125</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.7840805075</v>
+        <v>96.96295749749999</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>146.5123102275</v>
       </c>
       <c r="AA9" t="n">
-        <v>409.2093096149999</v>
+        <v>1021.5994420625</v>
       </c>
       <c r="AB9" t="n">
-        <v>342.4315899874999</v>
+        <v>775.1341271899998</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5638,25 +5638,25 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>33.99816286049999</v>
+        <v>163.8650191925</v>
       </c>
       <c r="W10" t="n">
-        <v>643.8210660609999</v>
+        <v>547.1866482007499</v>
       </c>
       <c r="X10" t="n">
-        <v>925.1482064877498</v>
+        <v>1039.547430167</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>62.32996524424998</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.585229743249998</v>
+        <v>74.58155546424999</v>
       </c>
       <c r="AA10" t="n">
-        <v>301.3891194119999</v>
+        <v>820.2439652289999</v>
       </c>
       <c r="AB10" t="n">
-        <v>79.94162618549998</v>
+        <v>1110.3003636875</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5721,28 +5721,28 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>28.495318245625</v>
       </c>
       <c r="V11" t="n">
-        <v>33.054569164925</v>
+        <v>108.282209333375</v>
       </c>
       <c r="W11" t="n">
-        <v>1097.639658821475</v>
+        <v>946.533056924675</v>
       </c>
       <c r="X11" t="n">
-        <v>1406.691738994025</v>
+        <v>191.16287783065</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>94.930117355425</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>134.335071729375</v>
       </c>
       <c r="AB11" t="n">
-        <v>161.364916465225</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>55507.7</v>
+        <v>41832.7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25298.8</v>
+        <v>24444.3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>200374.2</v>
+        <v>145464.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67418.40000000001</v>
+        <v>16109.7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>286528.2</v>
+        <v>225535.8</v>
       </c>
     </row>
   </sheetData>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6136,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
